--- a/Test Data/Gallery_PanelAccessories_MX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MX_Panels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4FDDCF-39DE-42AE-BBD6-B888AD38A238}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86328883-6828-4846-9E8B-3795E306AD06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Belgium" sheetId="14" r:id="rId1"/>
     <sheet name="Czech" sheetId="15" r:id="rId2"/>
     <sheet name="Swiss" sheetId="13" r:id="rId3"/>
+    <sheet name="Portugal" sheetId="17" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="27">
   <si>
     <t>Wg</t>
   </si>
@@ -110,6 +111,12 @@
   </si>
   <si>
     <t>NGC-3476/T2653</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2459</t>
   </si>
 </sst>
 </file>
@@ -671,7 +678,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection sqref="A1:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC277077-B4D6-45F1-8FCC-79252F0521D6}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -938,4 +945,141 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D53D5CA-FAC3-433C-96DB-F3358B763BDC}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_MX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MX_Panels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86328883-6828-4846-9E8B-3795E306AD06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FB6036-8AA4-4283-AA62-E62F258CBDA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Belgium" sheetId="14" r:id="rId1"/>
     <sheet name="Czech" sheetId="15" r:id="rId2"/>
     <sheet name="Swiss" sheetId="13" r:id="rId3"/>
     <sheet name="Portugal" sheetId="17" r:id="rId4"/>
+    <sheet name="Italy" sheetId="18" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="29">
   <si>
     <t>Wg</t>
   </si>
@@ -117,6 +118,12 @@
   </si>
   <si>
     <t>NGC-3479/T2459</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2454/T2453</t>
   </si>
 </sst>
 </file>
@@ -951,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D53D5CA-FAC3-433C-96DB-F3358B763BDC}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1082,4 +1089,141 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BC3B73-1EFC-4B72-9C36-EDADB60CCFB1}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_MX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MX_Panels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FB6036-8AA4-4283-AA62-E62F258CBDA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED113D3-602D-4A27-9BF0-B58FB9EC4F4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Belgium" sheetId="14" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Swiss" sheetId="13" r:id="rId3"/>
     <sheet name="Portugal" sheetId="17" r:id="rId4"/>
     <sheet name="Italy" sheetId="18" r:id="rId5"/>
+    <sheet name="Spain" sheetId="19" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="31">
   <si>
     <t>Wg</t>
   </si>
@@ -124,6 +125,12 @@
   </si>
   <si>
     <t>NGC-3145/T2454/T2453</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2064/T2063</t>
   </si>
 </sst>
 </file>
@@ -1095,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BC3B73-1EFC-4B72-9C36-EDADB60CCFB1}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1226,4 +1233,132 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB04A3C-75A2-4C1D-A875-B1A0EEBB48E5}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_MX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MX_Panels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED113D3-602D-4A27-9BF0-B58FB9EC4F4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04859844-1738-491E-ADFF-1E34F92DF323}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="31">
   <si>
     <t>Wg</t>
   </si>
@@ -1237,10 +1237,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB04A3C-75A2-4C1D-A875-B1A0EEBB48E5}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1346,11 +1346,16 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_PanelAccessories_MX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04859844-1738-491E-ADFF-1E34F92DF323}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63759E3-E8BA-4BB5-AC94-C1A9F5D46314}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Belgium" sheetId="14" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Portugal" sheetId="17" r:id="rId4"/>
     <sheet name="Italy" sheetId="18" r:id="rId5"/>
     <sheet name="Spain" sheetId="19" r:id="rId6"/>
+    <sheet name="Croatia" sheetId="20" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="33">
   <si>
     <t>Wg</t>
   </si>
@@ -131,6 +132,12 @@
   </si>
   <si>
     <t>NGC-3103/T2064/T2063</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2494/T2485</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
   </si>
 </sst>
 </file>
@@ -1239,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB04A3C-75A2-4C1D-A875-B1A0EEBB48E5}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1366,4 +1373,137 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D353986-B40B-4146-ADFA-22B08BC9BD6A}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_MX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63759E3-E8BA-4BB5-AC94-C1A9F5D46314}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EB5365-9049-4052-88C3-11F2E04570D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Belgium" sheetId="14" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Italy" sheetId="18" r:id="rId5"/>
     <sheet name="Spain" sheetId="19" r:id="rId6"/>
     <sheet name="Croatia" sheetId="20" r:id="rId7"/>
+    <sheet name="Greece" sheetId="21" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="35">
   <si>
     <t>Wg</t>
   </si>
@@ -138,6 +139,12 @@
   </si>
   <si>
     <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3189</t>
   </si>
 </sst>
 </file>
@@ -1379,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D353986-B40B-4146-ADFA-22B08BC9BD6A}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1506,4 +1513,137 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FF64DF-17C7-434B-92D3-2DC2259D9D04}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_MX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EB5365-9049-4052-88C3-11F2E04570D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDBED41-2E5B-424E-98D9-1BBAC3F82C9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Belgium" sheetId="14" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="Spain" sheetId="19" r:id="rId6"/>
     <sheet name="Croatia" sheetId="20" r:id="rId7"/>
     <sheet name="Greece" sheetId="21" r:id="rId8"/>
+    <sheet name="Netherlands" sheetId="22" r:id="rId9"/>
+    <sheet name="Denmark" sheetId="23" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="39">
   <si>
     <t>Wg</t>
   </si>
@@ -145,6 +147,18 @@
   </si>
   <si>
     <t>NGC-4119/T3189</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2199</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2798</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
   </si>
 </sst>
 </file>
@@ -701,6 +715,143 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A4B41F-4F8E-41AF-B037-565D4DB5A4E3}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F35EA8D-AA26-4EB0-86DA-F8846BEF13BF}">
   <dimension ref="A1:D18"/>
@@ -1519,7 +1670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FF64DF-17C7-434B-92D3-2DC2259D9D04}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1646,4 +1797,141 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEA6DBE-D22E-40CC-8375-407BF5E20C32}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_MX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDBED41-2E5B-424E-98D9-1BBAC3F82C9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594E8C0E-AEFA-4DB5-98EA-26873F638AC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="12" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Belgium" sheetId="14" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="Greece" sheetId="21" r:id="rId8"/>
     <sheet name="Netherlands" sheetId="22" r:id="rId9"/>
     <sheet name="Denmark" sheetId="23" r:id="rId10"/>
+    <sheet name="Russia" sheetId="25" r:id="rId11"/>
+    <sheet name="Finland" sheetId="26" r:id="rId12"/>
+    <sheet name="Hungary" sheetId="27" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="45">
   <si>
     <t>Wg</t>
   </si>
@@ -159,6 +162,24 @@
   </si>
   <si>
     <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2925</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2957</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T3006</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -719,7 +740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A4B41F-4F8E-41AF-B037-565D4DB5A4E3}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -846,6 +867,387 @@
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F9B842-199F-4EED-BB44-2E769A11D34B}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F9F203-F786-4499-A42C-9884E94F9BFD}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C7C513-C69B-4201-9602-EC952F5CF79A}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Test Data/Gallery_PanelAccessories_MX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594E8C0E-AEFA-4DB5-98EA-26873F638AC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA2DE9B-D377-4D57-843D-C773C4524659}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="12" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Belgium" sheetId="14" r:id="rId1"/>
@@ -26,6 +26,8 @@
     <sheet name="Russia" sheetId="25" r:id="rId11"/>
     <sheet name="Finland" sheetId="26" r:id="rId12"/>
     <sheet name="Hungary" sheetId="27" r:id="rId13"/>
+    <sheet name="Norway" sheetId="28" r:id="rId14"/>
+    <sheet name="Poland" sheetId="29" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="49">
   <si>
     <t>Wg</t>
   </si>
@@ -180,6 +182,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3085</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3120</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C7C513-C69B-4201-9602-EC952F5CF79A}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -1242,6 +1256,272 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DCDDC4-460C-4F6D-BFDB-7441C6CDC348}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16CBA8C-EEF5-418E-B6FE-122E21FABD95}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_PanelAccessories_MX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA2DE9B-D377-4D57-843D-C773C4524659}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2B2ED6-98F5-4793-B1F1-3E452E6FAEAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Belgium" sheetId="14" r:id="rId1"/>
@@ -1272,7 +1272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DCDDC4-460C-4F6D-BFDB-7441C6CDC348}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1949,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BC3B73-1EFC-4B72-9C36-EDADB60CCFB1}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2087,7 +2087,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/Gallery_PanelAccessories_MX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2B2ED6-98F5-4793-B1F1-3E452E6FAEAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF1BD0F-5649-4205-A2AA-18461A8FEDCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="15" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Belgium" sheetId="14" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="Hungary" sheetId="27" r:id="rId13"/>
     <sheet name="Norway" sheetId="28" r:id="rId14"/>
     <sheet name="Poland" sheetId="29" r:id="rId15"/>
+    <sheet name="UK" sheetId="30" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="51">
   <si>
     <t>Wg</t>
   </si>
@@ -194,6 +195,12 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3357</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1534,6 +1541,139 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC83EFAB-8788-4C80-BA58-93A83A67BD0E}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F35EA8D-AA26-4EB0-86DA-F8846BEF13BF}">
   <dimension ref="A1:D18"/>
@@ -1949,7 +2089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BC3B73-1EFC-4B72-9C36-EDADB60CCFB1}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:XFD18"/>
     </sheetView>
   </sheetViews>
